--- a/bioreactor_partlist.xlsx
+++ b/bioreactor_partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swathipenumutchu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D837C30-0215-DC4F-B2C0-14B5FBD3601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9080E131-8567-F74D-8022-100F0AD237DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Purpose</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Dollars</t>
+  </si>
+  <si>
+    <t>https://www.wpiinc.com/driref-2-dri-ref-reference-electrode-2-mm.html?srsltid=AfmBOoo0TIbQbkCCOFrlG2X3Q0pexQVHKHyk5CYPa4OnMnZRMZF5dwtG</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -332,6 +335,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -377,10 +387,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -443,8 +454,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,7 +676,9 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -671,7 +686,7 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
@@ -1308,7 +1323,9 @@
       <c r="D13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="F13" s="20">
         <v>158</v>
       </c>
@@ -1565,6 +1582,7 @@
     <hyperlink ref="E14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{50EF5C25-3BA2-1349-815C-03043820108E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
